--- a/biology/Médecine/Nodosités_d'Heberden/Nodosités_d'Heberden.xlsx
+++ b/biology/Médecine/Nodosités_d'Heberden/Nodosités_d'Heberden.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nodosit%C3%A9s_d%27Heberden</t>
+          <t>Nodosités_d'Heberden</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les nodosités d'Heberden sont des épaississements osseux au niveau des articulations interphalangiennes distales, articulations les plus proches des ongles[1]. Il s'agit d'excroissances osseuses appelées ostéophytes, qui sont des signes d'arthrose. Elles se manifestent par des tuméfactions arrondies, séparées par une dépression, qui peuvent entraîner des déformations des doigts. Elles peuvent toucher plusieurs doigts et sont plus fréquentes chez les femmes.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les nodosités d'Heberden sont des épaississements osseux au niveau des articulations interphalangiennes distales, articulations les plus proches des ongles. Il s'agit d'excroissances osseuses appelées ostéophytes, qui sont des signes d'arthrose. Elles se manifestent par des tuméfactions arrondies, séparées par une dépression, qui peuvent entraîner des déformations des doigts. Elles peuvent toucher plusieurs doigts et sont plus fréquentes chez les femmes.
 </t>
         </is>
       </c>
